--- a/biology/Biochimie/Diagramme_de_Lineweaver–Burk/Diagramme_de_Lineweaver–Burk.xlsx
+++ b/biology/Biochimie/Diagramme_de_Lineweaver–Burk/Diagramme_de_Lineweaver–Burk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diagramme_de_Lineweaver%E2%80%93Burk</t>
+          <t>Diagramme_de_Lineweaver–Burk</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En biochimie, le diagramme de Lineweaver-Burk est une représentation graphique permettant d'étudier la cinétique de réactions enzymatiques. Il est nommé ainsi d'après les biochimistes américains Hans Lineweaver (en) et Dean Burk, qui ont publié en 1934 leurs premiers travaux à ce sujet[1]. Le graphique est aussi appelé "double réciproque", puisque les deux axes du graphique représentent les inverses de grandeurs pertinentes : en abscisse, l'inverse de la concentration du substrat, en ordonnée l'inverse de la vitesse de réaction. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En biochimie, le diagramme de Lineweaver-Burk est une représentation graphique permettant d'étudier la cinétique de réactions enzymatiques. Il est nommé ainsi d'après les biochimistes américains Hans Lineweaver (en) et Dean Burk, qui ont publié en 1934 leurs premiers travaux à ce sujet. Le graphique est aussi appelé "double réciproque", puisque les deux axes du graphique représentent les inverses de grandeurs pertinentes : en abscisse, l'inverse de la concentration du substrat, en ordonnée l'inverse de la vitesse de réaction. 
 L'équation représentée est similaire à l'équation de Michaelis-Menten :
         V
         =
@@ -551,7 +563,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diagramme_de_Lineweaver%E2%80%93Burk</t>
+          <t>Diagramme_de_Lineweaver–Burk</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -569,7 +581,9 @@
           <t>Inconvénients de la méthode</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La méthode n'est théoriquement valide que si la réaction étudiée est une réaction idéale du second ordre,
 En raison de l'utilisation des inverses, des incertitudes expérimentales minimes peuvent conduire à des marges d'erreur considérables,
